--- a/1-repeated-measures-expected-values/housing.xlsx
+++ b/1-repeated-measures-expected-values/housing.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\olt-intermediate-stats\1-repeated-measures-expected-values\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92FA0F0-F882-4C52-A9F0-6E44D8DBAE36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063F3590-33B5-41CC-A5FD-691CA7682EF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27990" yWindow="2610" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="housing" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId2"/>
+    <pivotCache cacheId="0" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -8895,7 +8895,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{363F6AF2-8670-4E2C-998F-A8F272840A78}" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{363F6AF2-8670-4E2C-998F-A8F272840A78}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="O1:R5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField dataField="1" showAll="0"/>
@@ -9266,7 +9266,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R547"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/1-repeated-measures-expected-values/housing.xlsx
+++ b/1-repeated-measures-expected-values/housing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\olt-intermediate-stats\1-repeated-measures-expected-values\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\olt-intermediate-stats\1-repeated-measures-expected-values\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5706893C-EB12-4134-83BB-63E2E67E468E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20D60F2-4F29-42C7-B5EC-F850C57AC692}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25693" yWindow="-93" windowWidth="25786" windowHeight="14586" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -925,18 +925,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B708133-0A6F-4CDA-B2A5-CEA5F5F39C05}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -950,13 +950,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M547"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="15" max="15" width="12.05859375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.64453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.76171875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.234375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -997,7 +1003,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1038,7 +1044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1079,7 +1085,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1120,7 +1126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1161,7 +1167,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1202,7 +1208,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1243,7 +1249,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1284,7 +1290,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1325,7 +1331,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1366,7 +1372,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1407,7 +1413,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1448,7 +1454,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1489,7 +1495,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1530,7 +1536,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1571,7 +1577,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1612,7 +1618,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1653,7 +1659,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1694,7 +1700,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1735,7 +1741,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1776,7 +1782,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1817,7 +1823,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1858,7 +1864,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1899,7 +1905,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1940,7 +1946,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1981,7 +1987,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2022,7 +2028,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2063,7 +2069,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2104,7 +2110,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2145,7 +2151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2186,7 +2192,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2227,7 +2233,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2268,7 +2274,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2309,7 +2315,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2350,7 +2356,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2391,7 +2397,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2432,7 +2438,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2473,7 +2479,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2514,7 +2520,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2555,7 +2561,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2596,7 +2602,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2637,7 +2643,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2678,7 +2684,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2719,7 +2725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2760,7 +2766,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2801,7 +2807,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2842,7 +2848,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2883,7 +2889,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2924,7 +2930,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2965,7 +2971,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3006,7 +3012,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3047,7 +3053,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3088,7 +3094,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3129,7 +3135,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3170,7 +3176,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3211,7 +3217,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3252,7 +3258,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3293,7 +3299,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3334,7 +3340,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3375,7 +3381,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3416,7 +3422,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3457,7 +3463,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3498,7 +3504,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3539,7 +3545,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3580,7 +3586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3621,7 +3627,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3662,7 +3668,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3703,7 +3709,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3744,7 +3750,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3785,7 +3791,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3826,7 +3832,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3867,7 +3873,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3908,7 +3914,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3949,7 +3955,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3990,7 +3996,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4031,7 +4037,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4072,7 +4078,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4113,7 +4119,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4154,7 +4160,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4195,7 +4201,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4236,7 +4242,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4277,7 +4283,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4318,7 +4324,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4359,7 +4365,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4400,7 +4406,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4441,7 +4447,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4482,7 +4488,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4523,7 +4529,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4564,7 +4570,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4605,7 +4611,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4646,7 +4652,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4687,7 +4693,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4728,7 +4734,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4769,7 +4775,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4810,7 +4816,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4851,7 +4857,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4892,7 +4898,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4933,7 +4939,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4974,7 +4980,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5015,7 +5021,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5056,7 +5062,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5097,7 +5103,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A102">
         <v>101</v>
       </c>
@@ -5138,7 +5144,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A103">
         <v>102</v>
       </c>
@@ -5179,7 +5185,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A104">
         <v>103</v>
       </c>
@@ -5220,7 +5226,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A105">
         <v>104</v>
       </c>
@@ -5261,7 +5267,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A106">
         <v>105</v>
       </c>
@@ -5302,7 +5308,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A107">
         <v>106</v>
       </c>
@@ -5343,7 +5349,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A108">
         <v>107</v>
       </c>
@@ -5384,7 +5390,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A109">
         <v>108</v>
       </c>
@@ -5425,7 +5431,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A110">
         <v>109</v>
       </c>
@@ -5466,7 +5472,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A111">
         <v>110</v>
       </c>
@@ -5507,7 +5513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A112">
         <v>111</v>
       </c>
@@ -5548,7 +5554,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5589,7 +5595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5630,7 +5636,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5671,7 +5677,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5712,7 +5718,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A117">
         <v>116</v>
       </c>
@@ -5753,7 +5759,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5794,7 +5800,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5835,7 +5841,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A120">
         <v>119</v>
       </c>
@@ -5876,7 +5882,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5917,7 +5923,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5958,7 +5964,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5999,7 +6005,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A124">
         <v>123</v>
       </c>
@@ -6040,7 +6046,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A125">
         <v>124</v>
       </c>
@@ -6081,7 +6087,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A126">
         <v>125</v>
       </c>
@@ -6122,7 +6128,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A127">
         <v>126</v>
       </c>
@@ -6163,7 +6169,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A128">
         <v>127</v>
       </c>
@@ -6204,7 +6210,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A129">
         <v>128</v>
       </c>
@@ -6245,7 +6251,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A130">
         <v>129</v>
       </c>
@@ -6286,7 +6292,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A131">
         <v>130</v>
       </c>
@@ -6327,7 +6333,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A132">
         <v>131</v>
       </c>
@@ -6368,7 +6374,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A133">
         <v>132</v>
       </c>
@@ -6409,7 +6415,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A134">
         <v>133</v>
       </c>
@@ -6450,7 +6456,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A135">
         <v>134</v>
       </c>
@@ -6491,7 +6497,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A136">
         <v>135</v>
       </c>
@@ -6532,7 +6538,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A137">
         <v>136</v>
       </c>
@@ -6573,7 +6579,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A138">
         <v>137</v>
       </c>
@@ -6614,7 +6620,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A139">
         <v>138</v>
       </c>
@@ -6655,7 +6661,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A140">
         <v>139</v>
       </c>
@@ -6696,7 +6702,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A141">
         <v>140</v>
       </c>
@@ -6737,7 +6743,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A142">
         <v>141</v>
       </c>
@@ -6778,7 +6784,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A143">
         <v>142</v>
       </c>
@@ -6819,7 +6825,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A144">
         <v>143</v>
       </c>
@@ -6860,7 +6866,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A145">
         <v>144</v>
       </c>
@@ -6901,7 +6907,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A146">
         <v>145</v>
       </c>
@@ -6942,7 +6948,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A147">
         <v>146</v>
       </c>
@@ -6983,7 +6989,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A148">
         <v>147</v>
       </c>
@@ -7024,7 +7030,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A149">
         <v>148</v>
       </c>
@@ -7065,7 +7071,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A150">
         <v>149</v>
       </c>
@@ -7106,7 +7112,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A151">
         <v>150</v>
       </c>
@@ -7147,7 +7153,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A152">
         <v>151</v>
       </c>
@@ -7188,7 +7194,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A153">
         <v>152</v>
       </c>
@@ -7229,7 +7235,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A154">
         <v>153</v>
       </c>
@@ -7270,7 +7276,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A155">
         <v>154</v>
       </c>
@@ -7311,7 +7317,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A156">
         <v>155</v>
       </c>
@@ -7352,7 +7358,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A157">
         <v>156</v>
       </c>
@@ -7393,7 +7399,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A158">
         <v>157</v>
       </c>
@@ -7434,7 +7440,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A159">
         <v>158</v>
       </c>
@@ -7475,7 +7481,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A160">
         <v>159</v>
       </c>
@@ -7516,7 +7522,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A161">
         <v>160</v>
       </c>
@@ -7557,7 +7563,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A162">
         <v>161</v>
       </c>
@@ -7598,7 +7604,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A163">
         <v>162</v>
       </c>
@@ -7639,7 +7645,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A164">
         <v>163</v>
       </c>
@@ -7680,7 +7686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A165">
         <v>164</v>
       </c>
@@ -7721,7 +7727,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A166">
         <v>165</v>
       </c>
@@ -7762,7 +7768,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A167">
         <v>166</v>
       </c>
@@ -7803,7 +7809,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A168">
         <v>167</v>
       </c>
@@ -7844,7 +7850,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A169">
         <v>168</v>
       </c>
@@ -7885,7 +7891,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A170">
         <v>169</v>
       </c>
@@ -7926,7 +7932,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A171">
         <v>170</v>
       </c>
@@ -7967,7 +7973,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A172">
         <v>171</v>
       </c>
@@ -8008,7 +8014,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A173">
         <v>172</v>
       </c>
@@ -8049,7 +8055,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A174">
         <v>173</v>
       </c>
@@ -8090,7 +8096,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A175">
         <v>174</v>
       </c>
@@ -8131,7 +8137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A176">
         <v>175</v>
       </c>
@@ -8172,7 +8178,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A177">
         <v>176</v>
       </c>
@@ -8213,7 +8219,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A178">
         <v>177</v>
       </c>
@@ -8254,7 +8260,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A179">
         <v>178</v>
       </c>
@@ -8295,7 +8301,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A180">
         <v>179</v>
       </c>
@@ -8336,7 +8342,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A181">
         <v>180</v>
       </c>
@@ -8377,7 +8383,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A182">
         <v>181</v>
       </c>
@@ -8418,7 +8424,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A183">
         <v>182</v>
       </c>
@@ -8459,7 +8465,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A184">
         <v>183</v>
       </c>
@@ -8500,7 +8506,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A185">
         <v>184</v>
       </c>
@@ -8541,7 +8547,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A186">
         <v>185</v>
       </c>
@@ -8582,7 +8588,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A187">
         <v>186</v>
       </c>
@@ -8623,7 +8629,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A188">
         <v>187</v>
       </c>
@@ -8664,7 +8670,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A189">
         <v>188</v>
       </c>
@@ -8705,7 +8711,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A190">
         <v>189</v>
       </c>
@@ -8746,7 +8752,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A191">
         <v>190</v>
       </c>
@@ -8787,7 +8793,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A192">
         <v>191</v>
       </c>
@@ -8828,7 +8834,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A193">
         <v>192</v>
       </c>
@@ -8869,7 +8875,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A194">
         <v>193</v>
       </c>
@@ -8910,7 +8916,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A195">
         <v>194</v>
       </c>
@@ -8951,7 +8957,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A196">
         <v>195</v>
       </c>
@@ -8992,7 +8998,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A197">
         <v>196</v>
       </c>
@@ -9033,7 +9039,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A198">
         <v>197</v>
       </c>
@@ -9074,7 +9080,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A199">
         <v>198</v>
       </c>
@@ -9115,7 +9121,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A200">
         <v>199</v>
       </c>
@@ -9156,7 +9162,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A201">
         <v>200</v>
       </c>
@@ -9197,7 +9203,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A202">
         <v>201</v>
       </c>
@@ -9238,7 +9244,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A203">
         <v>202</v>
       </c>
@@ -9279,7 +9285,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A204">
         <v>203</v>
       </c>
@@ -9320,7 +9326,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A205">
         <v>204</v>
       </c>
@@ -9361,7 +9367,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A206">
         <v>205</v>
       </c>
@@ -9402,7 +9408,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A207">
         <v>206</v>
       </c>
@@ -9443,7 +9449,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A208">
         <v>207</v>
       </c>
@@ -9484,7 +9490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A209">
         <v>208</v>
       </c>
@@ -9525,7 +9531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A210">
         <v>209</v>
       </c>
@@ -9566,7 +9572,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A211">
         <v>210</v>
       </c>
@@ -9607,7 +9613,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A212">
         <v>211</v>
       </c>
@@ -9648,7 +9654,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A213">
         <v>212</v>
       </c>
@@ -9689,7 +9695,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A214">
         <v>213</v>
       </c>
@@ -9730,7 +9736,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A215">
         <v>214</v>
       </c>
@@ -9771,7 +9777,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A216">
         <v>215</v>
       </c>
@@ -9812,7 +9818,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A217">
         <v>216</v>
       </c>
@@ -9853,7 +9859,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A218">
         <v>217</v>
       </c>
@@ -9894,7 +9900,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A219">
         <v>218</v>
       </c>
@@ -9935,7 +9941,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A220">
         <v>219</v>
       </c>
@@ -9976,7 +9982,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A221">
         <v>220</v>
       </c>
@@ -10017,7 +10023,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A222">
         <v>221</v>
       </c>
@@ -10058,7 +10064,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A223">
         <v>222</v>
       </c>
@@ -10099,7 +10105,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A224">
         <v>223</v>
       </c>
@@ -10140,7 +10146,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A225">
         <v>224</v>
       </c>
@@ -10181,7 +10187,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A226">
         <v>225</v>
       </c>
@@ -10222,7 +10228,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A227">
         <v>226</v>
       </c>
@@ -10263,7 +10269,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A228">
         <v>227</v>
       </c>
@@ -10304,7 +10310,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A229">
         <v>228</v>
       </c>
@@ -10345,7 +10351,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A230">
         <v>229</v>
       </c>
@@ -10386,7 +10392,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A231">
         <v>230</v>
       </c>
@@ -10427,7 +10433,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A232">
         <v>231</v>
       </c>
@@ -10468,7 +10474,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A233">
         <v>232</v>
       </c>
@@ -10509,7 +10515,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A234">
         <v>233</v>
       </c>
@@ -10550,7 +10556,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A235">
         <v>234</v>
       </c>
@@ -10591,7 +10597,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A236">
         <v>235</v>
       </c>
@@ -10632,7 +10638,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A237">
         <v>236</v>
       </c>
@@ -10673,7 +10679,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A238">
         <v>237</v>
       </c>
@@ -10714,7 +10720,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A239">
         <v>238</v>
       </c>
@@ -10755,7 +10761,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A240">
         <v>239</v>
       </c>
@@ -10796,7 +10802,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A241">
         <v>240</v>
       </c>
@@ -10837,7 +10843,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A242">
         <v>241</v>
       </c>
@@ -10878,7 +10884,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A243">
         <v>242</v>
       </c>
@@ -10919,7 +10925,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A244">
         <v>243</v>
       </c>
@@ -10960,7 +10966,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A245">
         <v>244</v>
       </c>
@@ -11001,7 +11007,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A246">
         <v>245</v>
       </c>
@@ -11042,7 +11048,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A247">
         <v>246</v>
       </c>
@@ -11083,7 +11089,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A248">
         <v>247</v>
       </c>
@@ -11124,7 +11130,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A249">
         <v>248</v>
       </c>
@@ -11165,7 +11171,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A250">
         <v>249</v>
       </c>
@@ -11206,7 +11212,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A251">
         <v>250</v>
       </c>
@@ -11247,7 +11253,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A252">
         <v>251</v>
       </c>
@@ -11288,7 +11294,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A253">
         <v>252</v>
       </c>
@@ -11329,7 +11335,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A254">
         <v>253</v>
       </c>
@@ -11370,7 +11376,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A255">
         <v>254</v>
       </c>
@@ -11411,7 +11417,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A256">
         <v>255</v>
       </c>
@@ -11452,7 +11458,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A257">
         <v>256</v>
       </c>
@@ -11493,7 +11499,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A258">
         <v>257</v>
       </c>
@@ -11534,7 +11540,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A259">
         <v>258</v>
       </c>
@@ -11575,7 +11581,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A260">
         <v>259</v>
       </c>
@@ -11616,7 +11622,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A261">
         <v>260</v>
       </c>
@@ -11657,7 +11663,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A262">
         <v>261</v>
       </c>
@@ -11698,7 +11704,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A263">
         <v>262</v>
       </c>
@@ -11739,7 +11745,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A264">
         <v>263</v>
       </c>
@@ -11780,7 +11786,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A265">
         <v>264</v>
       </c>
@@ -11821,7 +11827,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A266">
         <v>265</v>
       </c>
@@ -11862,7 +11868,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A267">
         <v>266</v>
       </c>
@@ -11903,7 +11909,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A268">
         <v>267</v>
       </c>
@@ -11944,7 +11950,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A269">
         <v>268</v>
       </c>
@@ -11985,7 +11991,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A270">
         <v>269</v>
       </c>
@@ -12026,7 +12032,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A271">
         <v>270</v>
       </c>
@@ -12067,7 +12073,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A272">
         <v>271</v>
       </c>
@@ -12108,7 +12114,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A273">
         <v>272</v>
       </c>
@@ -12149,7 +12155,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A274">
         <v>273</v>
       </c>
@@ -12190,7 +12196,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A275">
         <v>274</v>
       </c>
@@ -12231,7 +12237,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A276">
         <v>275</v>
       </c>
@@ -12272,7 +12278,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A277">
         <v>276</v>
       </c>
@@ -12313,7 +12319,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A278">
         <v>277</v>
       </c>
@@ -12354,7 +12360,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A279">
         <v>278</v>
       </c>
@@ -12395,7 +12401,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A280">
         <v>279</v>
       </c>
@@ -12436,7 +12442,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A281">
         <v>280</v>
       </c>
@@ -12477,7 +12483,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A282">
         <v>281</v>
       </c>
@@ -12518,7 +12524,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A283">
         <v>282</v>
       </c>
@@ -12559,7 +12565,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A284">
         <v>283</v>
       </c>
@@ -12600,7 +12606,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A285">
         <v>284</v>
       </c>
@@ -12641,7 +12647,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A286">
         <v>285</v>
       </c>
@@ -12682,7 +12688,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A287">
         <v>286</v>
       </c>
@@ -12723,7 +12729,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A288">
         <v>287</v>
       </c>
@@ -12764,7 +12770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A289">
         <v>288</v>
       </c>
@@ -12805,7 +12811,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A290">
         <v>289</v>
       </c>
@@ -12846,7 +12852,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A291">
         <v>290</v>
       </c>
@@ -12887,7 +12893,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A292">
         <v>291</v>
       </c>
@@ -12928,7 +12934,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A293">
         <v>292</v>
       </c>
@@ -12969,7 +12975,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A294">
         <v>293</v>
       </c>
@@ -13010,7 +13016,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A295">
         <v>294</v>
       </c>
@@ -13051,7 +13057,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A296">
         <v>295</v>
       </c>
@@ -13092,7 +13098,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A297">
         <v>296</v>
       </c>
@@ -13133,7 +13139,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A298">
         <v>297</v>
       </c>
@@ -13174,7 +13180,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A299">
         <v>298</v>
       </c>
@@ -13215,7 +13221,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A300">
         <v>299</v>
       </c>
@@ -13256,7 +13262,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A301">
         <v>300</v>
       </c>
@@ -13297,7 +13303,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A302">
         <v>301</v>
       </c>
@@ -13338,7 +13344,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A303">
         <v>302</v>
       </c>
@@ -13379,7 +13385,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A304">
         <v>303</v>
       </c>
@@ -13420,7 +13426,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A305">
         <v>304</v>
       </c>
@@ -13461,7 +13467,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A306">
         <v>305</v>
       </c>
@@ -13502,7 +13508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A307">
         <v>306</v>
       </c>
@@ -13543,7 +13549,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A308">
         <v>307</v>
       </c>
@@ -13584,7 +13590,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A309">
         <v>308</v>
       </c>
@@ -13625,7 +13631,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A310">
         <v>309</v>
       </c>
@@ -13666,7 +13672,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A311">
         <v>310</v>
       </c>
@@ -13707,7 +13713,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A312">
         <v>311</v>
       </c>
@@ -13748,7 +13754,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A313">
         <v>312</v>
       </c>
@@ -13789,7 +13795,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A314">
         <v>313</v>
       </c>
@@ -13830,7 +13836,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A315">
         <v>314</v>
       </c>
@@ -13871,7 +13877,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A316">
         <v>315</v>
       </c>
@@ -13912,7 +13918,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A317">
         <v>316</v>
       </c>
@@ -13953,7 +13959,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A318">
         <v>317</v>
       </c>
@@ -13994,7 +14000,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A319">
         <v>318</v>
       </c>
@@ -14035,7 +14041,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A320">
         <v>319</v>
       </c>
@@ -14076,7 +14082,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A321">
         <v>320</v>
       </c>
@@ -14117,7 +14123,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A322">
         <v>321</v>
       </c>
@@ -14158,7 +14164,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A323">
         <v>322</v>
       </c>
@@ -14199,7 +14205,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A324">
         <v>323</v>
       </c>
@@ -14240,7 +14246,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A325">
         <v>324</v>
       </c>
@@ -14281,7 +14287,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A326">
         <v>325</v>
       </c>
@@ -14322,7 +14328,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A327">
         <v>326</v>
       </c>
@@ -14363,7 +14369,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A328">
         <v>327</v>
       </c>
@@ -14404,7 +14410,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A329">
         <v>328</v>
       </c>
@@ -14445,7 +14451,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A330">
         <v>329</v>
       </c>
@@ -14486,7 +14492,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A331">
         <v>330</v>
       </c>
@@ -14527,7 +14533,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A332">
         <v>331</v>
       </c>
@@ -14568,7 +14574,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A333">
         <v>332</v>
       </c>
@@ -14609,7 +14615,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A334">
         <v>333</v>
       </c>
@@ -14650,7 +14656,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A335">
         <v>334</v>
       </c>
@@ -14691,7 +14697,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A336">
         <v>335</v>
       </c>
@@ -14732,7 +14738,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A337">
         <v>336</v>
       </c>
@@ -14773,7 +14779,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A338">
         <v>337</v>
       </c>
@@ -14814,7 +14820,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A339">
         <v>338</v>
       </c>
@@ -14855,7 +14861,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A340">
         <v>339</v>
       </c>
@@ -14896,7 +14902,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A341">
         <v>340</v>
       </c>
@@ -14937,7 +14943,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A342">
         <v>341</v>
       </c>
@@ -14978,7 +14984,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A343">
         <v>342</v>
       </c>
@@ -15019,7 +15025,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A344">
         <v>343</v>
       </c>
@@ -15060,7 +15066,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A345">
         <v>344</v>
       </c>
@@ -15101,7 +15107,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A346">
         <v>345</v>
       </c>
@@ -15142,7 +15148,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A347">
         <v>346</v>
       </c>
@@ -15183,7 +15189,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A348">
         <v>347</v>
       </c>
@@ -15224,7 +15230,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A349">
         <v>348</v>
       </c>
@@ -15265,7 +15271,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A350">
         <v>349</v>
       </c>
@@ -15306,7 +15312,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A351">
         <v>350</v>
       </c>
@@ -15347,7 +15353,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A352">
         <v>351</v>
       </c>
@@ -15388,7 +15394,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A353">
         <v>352</v>
       </c>
@@ -15429,7 +15435,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A354">
         <v>353</v>
       </c>
@@ -15470,7 +15476,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A355">
         <v>354</v>
       </c>
@@ -15511,7 +15517,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A356">
         <v>355</v>
       </c>
@@ -15552,7 +15558,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A357">
         <v>356</v>
       </c>
@@ -15593,7 +15599,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A358">
         <v>357</v>
       </c>
@@ -15634,7 +15640,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A359">
         <v>358</v>
       </c>
@@ -15675,7 +15681,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A360">
         <v>359</v>
       </c>
@@ -15716,7 +15722,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A361">
         <v>360</v>
       </c>
@@ -15757,7 +15763,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A362">
         <v>361</v>
       </c>
@@ -15798,7 +15804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A363">
         <v>362</v>
       </c>
@@ -15839,7 +15845,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A364">
         <v>363</v>
       </c>
@@ -15880,7 +15886,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A365">
         <v>364</v>
       </c>
@@ -15921,7 +15927,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A366">
         <v>365</v>
       </c>
@@ -15962,7 +15968,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A367">
         <v>366</v>
       </c>
@@ -16003,7 +16009,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A368">
         <v>367</v>
       </c>
@@ -16044,7 +16050,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A369">
         <v>368</v>
       </c>
@@ -16085,7 +16091,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A370">
         <v>369</v>
       </c>
@@ -16126,7 +16132,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A371">
         <v>370</v>
       </c>
@@ -16167,7 +16173,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A372">
         <v>371</v>
       </c>
@@ -16208,7 +16214,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A373">
         <v>372</v>
       </c>
@@ -16249,7 +16255,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A374">
         <v>373</v>
       </c>
@@ -16290,7 +16296,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A375">
         <v>374</v>
       </c>
@@ -16331,7 +16337,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A376">
         <v>375</v>
       </c>
@@ -16372,7 +16378,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A377">
         <v>376</v>
       </c>
@@ -16413,7 +16419,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A378">
         <v>377</v>
       </c>
@@ -16454,7 +16460,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A379">
         <v>378</v>
       </c>
@@ -16495,7 +16501,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A380">
         <v>379</v>
       </c>
@@ -16536,7 +16542,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A381">
         <v>380</v>
       </c>
@@ -16577,7 +16583,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A382">
         <v>381</v>
       </c>
@@ -16618,7 +16624,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A383">
         <v>382</v>
       </c>
@@ -16659,7 +16665,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A384">
         <v>383</v>
       </c>
@@ -16700,7 +16706,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A385">
         <v>384</v>
       </c>
@@ -16741,7 +16747,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A386">
         <v>385</v>
       </c>
@@ -16782,7 +16788,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A387">
         <v>386</v>
       </c>
@@ -16823,7 +16829,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A388">
         <v>387</v>
       </c>
@@ -16864,7 +16870,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A389">
         <v>388</v>
       </c>
@@ -16905,7 +16911,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A390">
         <v>389</v>
       </c>
@@ -16946,7 +16952,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A391">
         <v>390</v>
       </c>
@@ -16987,7 +16993,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A392">
         <v>391</v>
       </c>
@@ -17028,7 +17034,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A393">
         <v>392</v>
       </c>
@@ -17069,7 +17075,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A394">
         <v>393</v>
       </c>
@@ -17110,7 +17116,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A395">
         <v>394</v>
       </c>
@@ -17151,7 +17157,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A396">
         <v>395</v>
       </c>
@@ -17192,7 +17198,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A397">
         <v>396</v>
       </c>
@@ -17233,7 +17239,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A398">
         <v>397</v>
       </c>
@@ -17274,7 +17280,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A399">
         <v>398</v>
       </c>
@@ -17315,7 +17321,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A400">
         <v>399</v>
       </c>
@@ -17356,7 +17362,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A401">
         <v>400</v>
       </c>
@@ -17397,7 +17403,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A402">
         <v>401</v>
       </c>
@@ -17438,7 +17444,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A403">
         <v>402</v>
       </c>
@@ -17479,7 +17485,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A404">
         <v>403</v>
       </c>
@@ -17520,7 +17526,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A405">
         <v>404</v>
       </c>
@@ -17561,7 +17567,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A406">
         <v>405</v>
       </c>
@@ -17602,7 +17608,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A407">
         <v>406</v>
       </c>
@@ -17643,7 +17649,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A408">
         <v>407</v>
       </c>
@@ -17684,7 +17690,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A409">
         <v>408</v>
       </c>
@@ -17725,7 +17731,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A410">
         <v>409</v>
       </c>
@@ -17766,7 +17772,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A411">
         <v>410</v>
       </c>
@@ -17807,7 +17813,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A412">
         <v>411</v>
       </c>
@@ -17848,7 +17854,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A413">
         <v>412</v>
       </c>
@@ -17889,7 +17895,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A414">
         <v>413</v>
       </c>
@@ -17930,7 +17936,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A415">
         <v>414</v>
       </c>
@@ -17971,7 +17977,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A416">
         <v>415</v>
       </c>
@@ -18012,7 +18018,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A417">
         <v>416</v>
       </c>
@@ -18053,7 +18059,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A418">
         <v>417</v>
       </c>
@@ -18094,7 +18100,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A419">
         <v>418</v>
       </c>
@@ -18135,7 +18141,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A420">
         <v>419</v>
       </c>
@@ -18176,7 +18182,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A421">
         <v>420</v>
       </c>
@@ -18217,7 +18223,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A422">
         <v>421</v>
       </c>
@@ -18258,7 +18264,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A423">
         <v>422</v>
       </c>
@@ -18299,7 +18305,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A424">
         <v>423</v>
       </c>
@@ -18340,7 +18346,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A425">
         <v>424</v>
       </c>
@@ -18381,7 +18387,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A426">
         <v>425</v>
       </c>
@@ -18422,7 +18428,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A427">
         <v>426</v>
       </c>
@@ -18463,7 +18469,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A428">
         <v>427</v>
       </c>
@@ -18504,7 +18510,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A429">
         <v>428</v>
       </c>
@@ -18545,7 +18551,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A430">
         <v>429</v>
       </c>
@@ -18586,7 +18592,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A431">
         <v>430</v>
       </c>
@@ -18627,7 +18633,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A432">
         <v>431</v>
       </c>
@@ -18668,7 +18674,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A433">
         <v>432</v>
       </c>
@@ -18709,7 +18715,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A434">
         <v>433</v>
       </c>
@@ -18750,7 +18756,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A435">
         <v>434</v>
       </c>
@@ -18791,7 +18797,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A436">
         <v>435</v>
       </c>
@@ -18832,7 +18838,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A437">
         <v>436</v>
       </c>
@@ -18873,7 +18879,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A438">
         <v>437</v>
       </c>
@@ -18914,7 +18920,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A439">
         <v>438</v>
       </c>
@@ -18955,7 +18961,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A440">
         <v>439</v>
       </c>
@@ -18996,7 +19002,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A441">
         <v>440</v>
       </c>
@@ -19037,7 +19043,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A442">
         <v>441</v>
       </c>
@@ -19078,7 +19084,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A443">
         <v>442</v>
       </c>
@@ -19119,7 +19125,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A444">
         <v>443</v>
       </c>
@@ -19160,7 +19166,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A445">
         <v>444</v>
       </c>
@@ -19201,7 +19207,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A446">
         <v>445</v>
       </c>
@@ -19242,7 +19248,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A447">
         <v>446</v>
       </c>
@@ -19283,7 +19289,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A448">
         <v>447</v>
       </c>
@@ -19324,7 +19330,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A449">
         <v>448</v>
       </c>
@@ -19365,7 +19371,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A450">
         <v>449</v>
       </c>
@@ -19406,7 +19412,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A451">
         <v>450</v>
       </c>
@@ -19447,7 +19453,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A452">
         <v>451</v>
       </c>
@@ -19488,7 +19494,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A453">
         <v>452</v>
       </c>
@@ -19529,7 +19535,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A454">
         <v>453</v>
       </c>
@@ -19570,7 +19576,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A455">
         <v>454</v>
       </c>
@@ -19611,7 +19617,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A456">
         <v>455</v>
       </c>
@@ -19652,7 +19658,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="457" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A457">
         <v>456</v>
       </c>
@@ -19693,7 +19699,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A458">
         <v>457</v>
       </c>
@@ -19734,7 +19740,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A459">
         <v>458</v>
       </c>
@@ -19775,7 +19781,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A460">
         <v>459</v>
       </c>
@@ -19816,7 +19822,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A461">
         <v>460</v>
       </c>
@@ -19857,7 +19863,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="462" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A462">
         <v>461</v>
       </c>
@@ -19898,7 +19904,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A463">
         <v>462</v>
       </c>
@@ -19939,7 +19945,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A464">
         <v>463</v>
       </c>
@@ -19980,7 +19986,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A465">
         <v>464</v>
       </c>
@@ -20021,7 +20027,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A466">
         <v>465</v>
       </c>
@@ -20062,7 +20068,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A467">
         <v>466</v>
       </c>
@@ -20103,7 +20109,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A468">
         <v>467</v>
       </c>
@@ -20144,7 +20150,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A469">
         <v>468</v>
       </c>
@@ -20185,7 +20191,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A470">
         <v>469</v>
       </c>
@@ -20226,7 +20232,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A471">
         <v>470</v>
       </c>
@@ -20267,7 +20273,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A472">
         <v>471</v>
       </c>
@@ -20308,7 +20314,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A473">
         <v>472</v>
       </c>
@@ -20349,7 +20355,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A474">
         <v>473</v>
       </c>
@@ -20390,7 +20396,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A475">
         <v>474</v>
       </c>
@@ -20431,7 +20437,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A476">
         <v>475</v>
       </c>
@@ -20472,7 +20478,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A477">
         <v>476</v>
       </c>
@@ -20513,7 +20519,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A478">
         <v>477</v>
       </c>
@@ -20554,7 +20560,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A479">
         <v>478</v>
       </c>
@@ -20595,7 +20601,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A480">
         <v>479</v>
       </c>
@@ -20636,7 +20642,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A481">
         <v>480</v>
       </c>
@@ -20677,7 +20683,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A482">
         <v>481</v>
       </c>
@@ -20718,7 +20724,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A483">
         <v>482</v>
       </c>
@@ -20759,7 +20765,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A484">
         <v>483</v>
       </c>
@@ -20800,7 +20806,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A485">
         <v>484</v>
       </c>
@@ -20841,7 +20847,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A486">
         <v>485</v>
       </c>
@@ -20882,7 +20888,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A487">
         <v>486</v>
       </c>
@@ -20923,7 +20929,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A488">
         <v>487</v>
       </c>
@@ -20964,7 +20970,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A489">
         <v>488</v>
       </c>
@@ -21005,7 +21011,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A490">
         <v>489</v>
       </c>
@@ -21046,7 +21052,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A491">
         <v>490</v>
       </c>
@@ -21087,7 +21093,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A492">
         <v>491</v>
       </c>
@@ -21128,7 +21134,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A493">
         <v>492</v>
       </c>
@@ -21169,7 +21175,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A494">
         <v>493</v>
       </c>
@@ -21210,7 +21216,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A495">
         <v>494</v>
       </c>
@@ -21251,7 +21257,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A496">
         <v>495</v>
       </c>
@@ -21292,7 +21298,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="497" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A497">
         <v>496</v>
       </c>
@@ -21333,7 +21339,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A498">
         <v>497</v>
       </c>
@@ -21374,7 +21380,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="499" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A499">
         <v>498</v>
       </c>
@@ -21415,7 +21421,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A500">
         <v>499</v>
       </c>
@@ -21456,7 +21462,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A501">
         <v>500</v>
       </c>
@@ -21497,7 +21503,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="502" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A502">
         <v>501</v>
       </c>
@@ -21538,7 +21544,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="503" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A503">
         <v>502</v>
       </c>
@@ -21579,7 +21585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="504" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A504">
         <v>503</v>
       </c>
@@ -21620,7 +21626,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="505" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A505">
         <v>504</v>
       </c>
@@ -21661,7 +21667,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="506" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A506">
         <v>505</v>
       </c>
@@ -21702,7 +21708,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="507" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A507">
         <v>506</v>
       </c>
@@ -21743,7 +21749,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="508" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A508">
         <v>507</v>
       </c>
@@ -21784,7 +21790,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="509" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A509">
         <v>508</v>
       </c>
@@ -21825,7 +21831,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="510" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A510">
         <v>509</v>
       </c>
@@ -21866,7 +21872,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="511" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A511">
         <v>510</v>
       </c>
@@ -21907,7 +21913,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="512" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A512">
         <v>511</v>
       </c>
@@ -21948,7 +21954,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="513" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A513">
         <v>512</v>
       </c>
@@ -21989,7 +21995,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="514" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A514">
         <v>513</v>
       </c>
@@ -22030,7 +22036,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="515" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A515">
         <v>514</v>
       </c>
@@ -22071,7 +22077,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="516" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A516">
         <v>515</v>
       </c>
@@ -22112,7 +22118,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="517" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A517">
         <v>516</v>
       </c>
@@ -22153,7 +22159,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="518" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A518">
         <v>517</v>
       </c>
@@ -22194,7 +22200,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="519" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A519">
         <v>518</v>
       </c>
@@ -22235,7 +22241,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="520" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A520">
         <v>519</v>
       </c>
@@ -22276,7 +22282,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="521" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A521">
         <v>520</v>
       </c>
@@ -22317,7 +22323,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="522" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A522">
         <v>521</v>
       </c>
@@ -22358,7 +22364,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="523" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A523">
         <v>522</v>
       </c>
@@ -22399,7 +22405,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="524" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A524">
         <v>523</v>
       </c>
@@ -22440,7 +22446,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="525" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A525">
         <v>524</v>
       </c>
@@ -22481,7 +22487,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="526" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A526">
         <v>525</v>
       </c>
@@ -22522,7 +22528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="527" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A527">
         <v>526</v>
       </c>
@@ -22563,7 +22569,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="528" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A528">
         <v>527</v>
       </c>
@@ -22604,7 +22610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="529" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A529">
         <v>528</v>
       </c>
@@ -22645,7 +22651,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="530" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A530">
         <v>529</v>
       </c>
@@ -22686,7 +22692,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="531" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A531">
         <v>530</v>
       </c>
@@ -22727,7 +22733,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="532" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A532">
         <v>531</v>
       </c>
@@ -22768,7 +22774,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="533" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A533">
         <v>532</v>
       </c>
@@ -22809,7 +22815,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="534" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A534">
         <v>533</v>
       </c>
@@ -22850,7 +22856,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="535" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A535">
         <v>534</v>
       </c>
@@ -22891,7 +22897,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="536" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A536">
         <v>535</v>
       </c>
@@ -22932,7 +22938,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="537" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A537">
         <v>536</v>
       </c>
@@ -22973,7 +22979,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="538" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A538">
         <v>537</v>
       </c>
@@ -23014,7 +23020,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="539" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A539">
         <v>538</v>
       </c>
@@ -23055,7 +23061,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="540" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A540">
         <v>539</v>
       </c>
@@ -23096,7 +23102,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="541" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A541">
         <v>540</v>
       </c>
@@ -23137,7 +23143,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="542" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A542">
         <v>541</v>
       </c>
@@ -23178,7 +23184,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="543" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A543">
         <v>542</v>
       </c>
@@ -23219,7 +23225,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="544" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A544">
         <v>543</v>
       </c>
@@ -23260,7 +23266,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="545" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A545">
         <v>544</v>
       </c>
@@ -23301,7 +23307,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="546" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A546">
         <v>545</v>
       </c>
@@ -23342,7 +23348,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="547" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A547">
         <v>546</v>
       </c>
